--- a/Ordenação de dados.xlsx
+++ b/Ordenação de dados.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Bubble</t>
   </si>
@@ -36,40 +36,20 @@
     <t>Métodos / Quantidade de números</t>
   </si>
   <si>
-    <t>0.002</t>
-  </si>
-  <si>
-    <t>0.000</t>
-  </si>
-  <si>
     <t>Tempo em segundos*</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Numeros aleatorios de 0 a 10000</t>
-  </si>
-  <si>
-    <t>0.006</t>
-  </si>
-  <si>
-    <t>0.004</t>
-  </si>
-  <si>
-    <t>0.660</t>
-  </si>
-  <si>
-    <t>0.293</t>
-  </si>
-  <si>
-    <t>0.202</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -108,7 +88,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -132,19 +112,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -281,48 +248,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -621,136 +582,144 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="19.88671875" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="61.2" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3">
+      <c r="B1" s="2">
         <v>100</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="2">
         <v>1000</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="2">
         <v>10000</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="2">
         <v>100000</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="3">
         <v>1000000</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="9">
-        <v>66314</v>
-      </c>
-      <c r="F2" s="13"/>
+      <c r="B2" s="8">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8">
+        <v>2E-3</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0.182</v>
+      </c>
+      <c r="E2" s="8">
+        <v>21.774000000000001</v>
+      </c>
+      <c r="F2" s="9">
+        <v>2183.1080000000002</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="9">
-        <v>28745</v>
-      </c>
-      <c r="F3" s="13"/>
+      <c r="B3" s="8">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="E3" s="8">
+        <v>9.64</v>
+      </c>
+      <c r="F3" s="9">
+        <v>959.596</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="9">
-        <v>14787</v>
-      </c>
-      <c r="F4" s="13"/>
+      <c r="B4" s="8">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="D4" s="8">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="E4" s="8">
+        <v>4.9180000000000001</v>
+      </c>
+      <c r="F4" s="9">
+        <v>489.524</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>9</v>
+      <c r="B5" s="10">
+        <v>0</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="E5" s="10">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F5" s="11">
+        <v>9.9000000000000005E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>9</v>
+      <c r="B6" s="12">
+        <v>0</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0</v>
+      </c>
+      <c r="D6" s="12">
+        <v>2E-3</v>
+      </c>
+      <c r="E6" s="12">
+        <v>2.3E-2</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.22700000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="8" t="s">
-        <v>8</v>
+      <c r="A8" s="7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="8" t="s">
-        <v>10</v>
+      <c r="A9" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
